--- a/S3基础赛题.xlsx
+++ b/S3基础赛题.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="28260" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,7 +426,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -464,6 +464,13 @@
       <sz val="8"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1014,152 +1021,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1181,17 +1188,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1199,21 +1218,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1243,6 +1250,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1657,11 +1667,11 @@
   <sheetPr/>
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12:J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="4.125" customWidth="1"/>
     <col min="2" max="2" width="14.25" customWidth="1"/>
@@ -1694,10 +1704,10 @@
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -1708,8 +1718,8 @@
       </c>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:10">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
       <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
@@ -1722,10 +1732,10 @@
       <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:10">
       <c r="A3" s="5">
@@ -1734,22 +1744,22 @@
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="18" t="s">
@@ -1760,46 +1770,46 @@
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="10" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="E4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="21"/>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="10" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="16">
         <v>-1</v>
       </c>
-      <c r="H5" s="10"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="22"/>
       <c r="J5" s="23"/>
     </row>
@@ -1810,22 +1820,22 @@
       <c r="B6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="11" t="s">
+      <c r="E6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="18" t="s">
@@ -1836,48 +1846,48 @@
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="10" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="11" t="s">
+      <c r="E7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="21"/>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="10" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="11" t="s">
+      <c r="E8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I8" s="22"/>
@@ -1890,22 +1900,22 @@
       <c r="B9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="11" t="s">
+      <c r="E9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I9" s="18" t="s">
@@ -1916,48 +1926,48 @@
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="10" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="11" t="s">
+      <c r="E10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="25"/>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="10" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="11" t="s">
+      <c r="E11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I11" s="22"/>
@@ -1970,49 +1980,49 @@
       <c r="B12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="11" t="s">
+      <c r="E12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="10" t="s">
+      <c r="G12" s="17"/>
+      <c r="H12" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I12" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="28" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="10" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="11" t="s">
+      <c r="E13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="28"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="29"/>
       <c r="J13" s="23"/>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:10">
@@ -2022,25 +2032,25 @@
       <c r="B14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="11" t="s">
+      <c r="E14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="29" t="s">
+      <c r="H14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="30" t="s">
         <v>42</v>
       </c>
       <c r="J14" s="19" t="s">
@@ -2048,51 +2058,51 @@
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="10" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="11" t="s">
+      <c r="E15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="30"/>
+      <c r="H15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="31"/>
       <c r="J15" s="21"/>
     </row>
     <row r="16" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="10" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="11" t="s">
+      <c r="E16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="31"/>
+      <c r="H16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="32"/>
       <c r="J16" s="23"/>
     </row>
     <row r="17" ht="14.25" customHeight="1" spans="1:10">
@@ -2102,144 +2112,144 @@
       <c r="B17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="11" t="s">
+      <c r="E17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="J17" s="32" t="s">
+      <c r="J17" s="33" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="10" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="11" t="s">
+      <c r="E18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I18" s="20"/>
-      <c r="J18" s="33"/>
+      <c r="J18" s="34"/>
     </row>
     <row r="19" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="10" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="11" t="s">
+      <c r="E19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I19" s="20"/>
-      <c r="J19" s="33"/>
+      <c r="J19" s="34"/>
     </row>
     <row r="20" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="10" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12">
+      <c r="F20" s="15"/>
+      <c r="G20" s="16">
         <v>0</v>
       </c>
-      <c r="H20" s="10"/>
+      <c r="H20" s="8"/>
       <c r="I20" s="20"/>
-      <c r="J20" s="33"/>
+      <c r="J20" s="34"/>
     </row>
     <row r="21" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="10" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="H21" s="10"/>
+      <c r="H21" s="8"/>
       <c r="I21" s="20"/>
-      <c r="J21" s="33"/>
+      <c r="J21" s="34"/>
     </row>
     <row r="22" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="10" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="11" t="s">
+      <c r="E22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I22" s="22"/>
-      <c r="J22" s="34"/>
+      <c r="J22" s="35"/>
     </row>
     <row r="23" ht="14.25" customHeight="1" spans="1:10">
       <c r="A23" s="5">
@@ -2248,174 +2258,174 @@
       <c r="B23" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="10" t="s">
+      <c r="E23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I23" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="J23" s="35" t="s">
+      <c r="J23" s="36" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="10" t="s">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="10" t="s">
+      <c r="E24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I24" s="20"/>
-      <c r="J24" s="36"/>
+      <c r="J24" s="37"/>
     </row>
     <row r="25" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="10" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="10" t="s">
+      <c r="E25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I25" s="20"/>
-      <c r="J25" s="36"/>
+      <c r="J25" s="37"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="10" t="s">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="10" t="s">
+      <c r="E26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I26" s="20"/>
-      <c r="J26" s="36"/>
+      <c r="J26" s="37"/>
     </row>
     <row r="27" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="10" t="s">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="10" t="s">
+      <c r="E27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I27" s="20"/>
-      <c r="J27" s="36"/>
+      <c r="J27" s="37"/>
     </row>
     <row r="28" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="10" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="16">
         <v>0</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I28" s="20"/>
-      <c r="J28" s="36"/>
+      <c r="J28" s="37"/>
     </row>
     <row r="29" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="10" t="s">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="10" t="s">
+      <c r="E29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H29" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I29" s="22"/>
-      <c r="J29" s="37"/>
+      <c r="J29" s="38"/>
     </row>
     <row r="30" ht="14.25" customHeight="1" spans="1:10">
       <c r="A30" s="5">
@@ -2424,132 +2434,132 @@
       <c r="B30" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="10" t="s">
+      <c r="E30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="38" t="s">
+      <c r="G30" s="16"/>
+      <c r="H30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="J30" s="39" t="s">
+      <c r="J30" s="40" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="10" t="s">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="10" t="s">
+      <c r="E31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="40"/>
-      <c r="J31" s="41"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="41"/>
+      <c r="J31" s="42"/>
     </row>
     <row r="32" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="10" t="s">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="10" t="s">
+      <c r="E32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="40"/>
-      <c r="J32" s="41"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="41"/>
+      <c r="J32" s="42"/>
     </row>
     <row r="33" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="10" t="s">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="12">
+      <c r="F33" s="8"/>
+      <c r="G33" s="16">
         <v>1e-5</v>
       </c>
-      <c r="H33" s="10"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="41"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="42"/>
     </row>
     <row r="34" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="10" t="s">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F34" s="10"/>
-      <c r="G34" s="12">
+      <c r="F34" s="8"/>
+      <c r="G34" s="16">
         <v>1e-8</v>
       </c>
-      <c r="H34" s="10"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="41"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="42"/>
     </row>
     <row r="35" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="10" t="s">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="10"/>
-      <c r="G35" s="12" t="b">
+      <c r="F35" s="8"/>
+      <c r="G35" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="H35" s="10"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="43"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="44"/>
     </row>
     <row r="36" ht="14.25" customHeight="1" spans="1:10">
       <c r="A36" s="5">
@@ -2558,96 +2568,96 @@
       <c r="B36" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="10" t="s">
+      <c r="E36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="38" t="s">
+      <c r="G36" s="16"/>
+      <c r="H36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="J36" s="44" t="s">
+      <c r="J36" s="45" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="37" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="10" t="s">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="10" t="s">
+      <c r="E37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="40"/>
-      <c r="J37" s="45"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="41"/>
+      <c r="J37" s="46"/>
     </row>
     <row r="38" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="10" t="s">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="16">
         <v>0</v>
       </c>
-      <c r="H38" s="10"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="45"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="46"/>
     </row>
     <row r="39" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="10" t="s">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="12" t="b">
+      <c r="G39" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="H39" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" s="42"/>
-      <c r="J39" s="46"/>
+      <c r="H39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="43"/>
+      <c r="J39" s="47"/>
     </row>
     <row r="40" ht="14.25" customHeight="1" spans="1:10">
       <c r="A40" s="5">
@@ -2656,85 +2666,85 @@
       <c r="B40" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="10" t="s">
+      <c r="E40" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G40" s="12"/>
-      <c r="H40" s="10" t="s">
+      <c r="G40" s="16"/>
+      <c r="H40" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I40" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="J40" s="44" t="s">
+      <c r="J40" s="45" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="10" t="s">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E41" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F41" s="10" t="s">
+      <c r="E41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G41" s="12"/>
-      <c r="H41" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I41" s="40"/>
-      <c r="J41" s="45"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="41"/>
+      <c r="J41" s="46"/>
     </row>
     <row r="42" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="10" t="s">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" s="10" t="s">
+      <c r="E42" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G42" s="12"/>
-      <c r="H42" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I42" s="47"/>
-      <c r="J42" s="48"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="48"/>
+      <c r="J42" s="49"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
     </row>
     <row r="44" spans="2:10">
       <c r="B44" s="1"/>
@@ -2742,8 +2752,6 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
@@ -2825,7 +2833,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2846,7 +2854,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
